--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Title</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>files/talks/20220822_ISCB43_Rufibach_FUquant.pdf</t>
+  </si>
+  <si>
+    <t>files/talks/20180910_Rufibach_immortal_bias.pdf</t>
+  </si>
+  <si>
+    <t>Immortal bias - you live longer if you cannot die!</t>
+  </si>
+  <si>
+    <t>14th Basel Modeling &amp; Simulation Seminar</t>
   </si>
 </sst>
 </file>
@@ -526,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -538,7 +547,7 @@
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -597,39 +606,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="str">
+        <f>"10.09.2018"</f>
+        <v>10.09.2018</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B4" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Title</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>14th Basel Modeling &amp; Simulation Seminar</t>
+  </si>
+  <si>
+    <t>MIRROS: Planning a Phase 3 Trial with Time-to-event Endpoint, a Cure Proportion, and a Futility Interim Analysis using Response</t>
+  </si>
+  <si>
+    <t>JSM 2022 Washington DC (virtual talk)</t>
+  </si>
+  <si>
+    <t>files/talks/20220808_Rufibach_MIRROS.pdf</t>
   </si>
 </sst>
 </file>
@@ -535,12 +544,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -661,6 +670,24 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"08.08.2023"</f>
+        <v>08.08.2023</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -549,7 +549,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -615,77 +615,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="str">
+        <f>"09.08.2023"</f>
+        <v>09.08.2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f>"09.08.2023"</f>
-        <v>09.08.2023</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
+      <c r="B4" s="2" t="str">
+        <f>"08.08.2023"</f>
+        <v>08.08.2023</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B5" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>"08.08.2023"</f>
-        <v>08.08.2023</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -549,7 +549,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -633,42 +633,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="2" t="str">
+        <f>"08.08.2022"</f>
+        <v>08.08.2022</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>"08.08.2023"</f>
-        <v>08.08.2023</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Contributed talks</t>
   </si>
   <si>
-    <t>ISCB 2022 Newcastle</t>
-  </si>
-  <si>
     <t>Follow-up time in clinical trials with a time-to-event endpoint: Rede ning the question(s)</t>
   </si>
   <si>
@@ -106,6 +103,18 @@
   </si>
   <si>
     <t>files/talks/20220808_Rufibach_MIRROS.pdf</t>
+  </si>
+  <si>
+    <t>files/talks/20230828_ISCB_Rufibach_PFS_OS.pdf</t>
+  </si>
+  <si>
+    <t>ISCB44 2023 Milan</t>
+  </si>
+  <si>
+    <t>ISCB43 2022 Newcastle</t>
+  </si>
+  <si>
+    <t>Clinical trial design based on a multistate model that jointly models progression-free and overall survival</t>
   </si>
 </sst>
 </file>
@@ -544,12 +553,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -642,13 +651,13 @@
         <v>08.08.2022</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -660,32 +669,51 @@
         <v>10.09.2018</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -115,13 +115,34 @@
   </si>
   <si>
     <t>Clinical trial design based on a multistate model that jointly models progression-free and overall survival</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of AEs</t>
+  </si>
+  <si>
+    <t>files/talks/20230828_Rufibach_SAVVY.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/events_past.html#quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with varying follow-up times and/or competing risks, with a focus on analysis of AEs.</t>
+  </si>
+  <si>
+    <t>Long version of this talk</t>
+  </si>
+  <si>
+    <t>Short version of this talk</t>
+  </si>
+  <si>
+    <t>BBS seminar: Quantification of risk: ask the right questions or time to apply the estimand framework to safety!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +150,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -150,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -164,8 +193,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,12 +586,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -624,102 +657,147 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="str">
+        <f>"30.08.2023"</f>
+        <v>30.08.2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B4" s="3" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B6" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N6" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B7" s="3" t="str">
         <f>"28.08.2023"</f>
         <v>28.08.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N7" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B8" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Title</t>
   </si>
@@ -99,9 +99,6 @@
     <t>MIRROS: Planning a Phase 3 Trial with Time-to-event Endpoint, a Cure Proportion, and a Futility Interim Analysis using Response</t>
   </si>
   <si>
-    <t>JSM 2022 Washington DC (virtual talk)</t>
-  </si>
-  <si>
     <t>files/talks/20220808_Rufibach_MIRROS.pdf</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>BBS seminar: Quantification of risk: ask the right questions or time to apply the estimand framework to safety!</t>
+  </si>
+  <si>
+    <t>JSM 2022 Washington DC&lt;br&gt;(virtual talk)</t>
+  </si>
+  <si>
+    <t>ISCB44 2023 Milan /&lt;br&gt;CEN 2023 Basel</t>
   </si>
 </sst>
 </file>
@@ -591,15 +594,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -609,7 +612,7 @@
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -657,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -666,16 +669,16 @@
         <v>30.08.2023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -696,7 +699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -705,19 +708,19 @@
         <v>12.04.2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -726,16 +729,16 @@
         <v>08.08.2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -752,9 +755,8 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -763,17 +765,16 @@
         <v>28.08.2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -782,7 +783,7 @@
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>ISCB44 2023 Milan /&lt;br&gt;CEN 2023 Basel</t>
+  </si>
+  <si>
+    <t>Event projection: quantify uncertainty and manage expectations of broader teams</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20160428/1_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>BBS spring seminar</t>
   </si>
 </sst>
 </file>
@@ -589,12 +598,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -660,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -758,20 +767,20 @@
     </row>
     <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
+        <f>"28.04.2016"</f>
+        <v>28.04.2016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -779,16 +788,34 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Long version of this talk</t>
   </si>
   <si>
-    <t>Short version of this talk</t>
-  </si>
-  <si>
     <t>BBS seminar: Quantification of risk: ask the right questions or time to apply the estimand framework to safety!</t>
   </si>
   <si>
@@ -148,6 +145,18 @@
   </si>
   <si>
     <t>BBS spring seminar</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fUyXVkx12ak</t>
+  </si>
+  <si>
+    <t>Short version of this talk, which starts at 58:20 of the recording.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GK-uu6Y_9B4</t>
+  </si>
+  <si>
+    <t>Recording from Milan.</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -620,7 +629,7 @@
     <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -669,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -686,8 +695,11 @@
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -717,7 +729,7 @@
         <v>12.04.2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -738,7 +750,7 @@
         <v>08.08.2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -774,13 +786,13 @@
         <v>28.04.2016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -792,13 +804,19 @@
         <v>28.08.2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Title</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with varying follow-up times and/or competing risks, with a focus on analysis of AEs.</t>
   </si>
   <si>
-    <t>Long version of this talk</t>
-  </si>
-  <si>
     <t>BBS seminar: Quantification of risk: ask the right questions or time to apply the estimand framework to safety!</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Recording from Milan.</t>
+  </si>
+  <si>
+    <t>Long version of this talk, given at BBS seminar.</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -696,10 +696,10 @@
         <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>12.04.2023</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -737,8 +737,11 @@
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -750,7 +753,7 @@
         <v>08.08.2022</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>24</v>
@@ -786,13 +789,13 @@
         <v>28.04.2016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -804,7 +807,7 @@
         <v>28.08.2023</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -813,10 +816,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$117</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Long version of this talk, given at BBS seminar.</t>
+  </si>
+  <si>
+    <t>CDDF workshop on "innovative oncology clinical trial designs", Amsterdam</t>
+  </si>
+  <si>
+    <t>Estimands - industry perspective</t>
+  </si>
+  <si>
+    <t>files/talks/20230918_CDDF_Rufibach_Estimands.pdf</t>
   </si>
 </sst>
 </file>
@@ -607,12 +616,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -678,148 +687,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
+        <f>"18.09.2023"</f>
+        <v>18.09.2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B4" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B5" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B6" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B7" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B8" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -827,23 +830,47 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="E5" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Title</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>files/talks/20230918_CDDF_Rufibach_Estimands.pdf</t>
+  </si>
+  <si>
+    <t>University of Ulm</t>
+  </si>
+  <si>
+    <t>Efficient effect estimation in pre-specified subgroups in forest plots for a time-to-event endpoint</t>
+  </si>
+  <si>
+    <t>files/talks/20220222_Rufibach_subgroup.pdf</t>
   </si>
 </sst>
 </file>
@@ -616,12 +625,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -793,60 +802,54 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
+        <f>"22.02.2022"</f>
+        <v>22.02.2022</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B9" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -854,16 +857,40 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>files/talks/20220222_Rufibach_subgroup.pdf</t>
+  </si>
+  <si>
+    <t>ASA/LUNGevity Foundation/FDA 2023 Statistical Forum</t>
+  </si>
+  <si>
+    <t>Impact of Cross-over in the Evaluation of Overall Survival in cancer RCTs</t>
+  </si>
+  <si>
+    <t>files/talks/20231012_Rufibach_Lungevity_crossover.pdf</t>
   </si>
 </sst>
 </file>
@@ -625,21 +634,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
@@ -648,7 +657,7 @@
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -696,184 +705,178 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"12.10.2023"</f>
+        <v>12.10.2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B4" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B5" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B6" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B7" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>"22.02.2022"</f>
-        <v>22.02.2022</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
+        <f>"22.02.2022"</f>
+        <v>22.02.2022</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B10" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -881,23 +884,47 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="E6" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$120</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Title</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>files/talks/20231012_Rufibach_Lungevity_crossover.pdf</t>
+  </si>
+  <si>
+    <t>Italian Biostatistics Group (IBIG)</t>
+  </si>
+  <si>
+    <t>files/talks/20231023_Rufibach_IBIG_SAVVY.pdf</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of Aes</t>
   </si>
 </sst>
 </file>
@@ -634,12 +643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -656,8 +665,8 @@
     <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -705,22 +714,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>"12.10.2023"</f>
-        <v>12.10.2023</v>
+      <c r="B2" s="3" t="str">
+        <f>"23.10.2023"</f>
+        <v>23.10.2023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -728,137 +737,137 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="str">
+        <f>"12.10.2023"</f>
+        <v>12.10.2023</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B5" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B6" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B7" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>"22.02.2022"</f>
-        <v>22.02.2022</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <f>"10.09.2018"</f>
-        <v>10.09.2018</v>
+      <c r="B9" s="2" t="str">
+        <f>"22.02.2022"</f>
+        <v>22.02.2022</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -866,41 +875,35 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="str">
+        <f>"10.09.2018"</f>
+        <v>10.09.2018</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -908,23 +911,47 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="E7" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Title</t>
   </si>
@@ -177,9 +177,6 @@
     <t>files/talks/20220222_Rufibach_subgroup.pdf</t>
   </si>
   <si>
-    <t>ASA/LUNGevity Foundation/FDA 2023 Statistical Forum</t>
-  </si>
-  <si>
     <t>Impact of Cross-over in the Evaluation of Overall Survival in cancer RCTs</t>
   </si>
   <si>
@@ -193,6 +190,15 @@
   </si>
   <si>
     <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with competing risks, with a focus on analysis of Aes</t>
+  </si>
+  <si>
+    <t>files/talks/20210211_DCTs_estimands.pdf</t>
+  </si>
+  <si>
+    <t>How can the estimand framework support decentralized trials?</t>
+  </si>
+  <si>
+    <t>ASA/LUNGevity Foundation/FDA Statistical Forum</t>
   </si>
 </sst>
 </file>
@@ -643,12 +649,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -723,13 +729,13 @@
         <v>23.10.2023</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -741,13 +747,13 @@
         <v>12.10.2023</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -780,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -874,60 +880,53 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="3">
+        <v>44238</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -935,16 +934,40 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -654,7 +654,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -880,8 +880,9 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3">
-        <v>44238</v>
+      <c r="B10" s="3" t="str">
+        <f>"11.02.2021"</f>
+        <v>11.02.2021</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>58</v>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$122</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>Title</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>ASA/LUNGevity Foundation/FDA Statistical Forum</t>
+  </si>
+  <si>
+    <t>files/talks/20211216_Rufibach_complex_journeys.pdf</t>
+  </si>
+  <si>
+    <t>Answering Old Questions with New Tools: Application of the ICH E9 Addendum in Oncology</t>
+  </si>
+  <si>
+    <t>Royal Statistical Society Session on Design for Medical and Clinical studies</t>
   </si>
 </sst>
 </file>
@@ -649,12 +658,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -880,78 +889,72 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
+        <f>"16.12.2021"</f>
+        <v>16.12.2021</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -959,16 +962,40 @@
         <v>18</v>
       </c>
       <c r="B14" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Contributed talks</t>
   </si>
   <si>
-    <t>Follow-up time in clinical trials with a time-to-event endpoint: Rede ning the question(s)</t>
-  </si>
-  <si>
     <t>files/talks/20220822_ISCB43_Rufibach_FUquant.pdf</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>Royal Statistical Society Session on Design for Medical and Clinical studies</t>
+  </si>
+  <si>
+    <t>Follow-up time in clinical trials with a time-to-event endpoint: Redefining the question(s)</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -738,13 +738,13 @@
         <v>23.10.2023</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -756,13 +756,13 @@
         <v>12.10.2023</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -774,13 +774,13 @@
         <v>18.09.2023</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -792,19 +792,19 @@
         <v>30.08.2023</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -834,19 +834,19 @@
         <v>12.04.2023</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -858,13 +858,13 @@
         <v>08.08.2022</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -876,13 +876,13 @@
         <v>22.02.2022</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -894,13 +894,13 @@
         <v>16.12.2021</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -912,13 +912,13 @@
         <v>11.02.2021</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -930,13 +930,13 @@
         <v>10.09.2018</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -948,13 +948,13 @@
         <v>28.04.2016</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -966,19 +966,19 @@
         <v>28.08.2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -990,13 +990,13 @@
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$123</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Title</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Follow-up time in clinical trials with a time-to-event endpoint: Redefining the question(s)</t>
+  </si>
+  <si>
+    <t>files/talks/20150616_3arm_designs_ROeS_Milan.pdf</t>
+  </si>
+  <si>
+    <t>Joint Meeting of the International Biometric Society Austro-Swiss and Italian Regions, Milan, Italy</t>
+  </si>
+  <si>
+    <t>Evaluation of possible designs for a three-arm clinical trial: Comparing a closed-testing design to potential alternatives.</t>
   </si>
 </sst>
 </file>
@@ -658,12 +667,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -999,8 +1008,30 @@
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>"16.06.2015"</f>
+        <v>16.06.2015</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState ref="A2:N16">
+    <sortCondition descending="1" ref="A2:A16"/>
+    <sortCondition descending="1" ref="B2:B16"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$124</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Title</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Evaluation of possible designs for a three-arm clinical trial: Comparing a closed-testing design to potential alternatives.</t>
+  </si>
+  <si>
+    <t>files/talks/20240215_Rufibach_Futility_handout.pdf</t>
+  </si>
+  <si>
+    <t>Futility analyses - a strategic tool in drug development and not futile fat all!</t>
+  </si>
+  <si>
+    <t>https://theeffectivestatistician.com/welcome-to-the-effective-statistician-conference-2024/</t>
+  </si>
+  <si>
+    <t>Effective Statistician Conference 2024</t>
   </si>
 </sst>
 </file>
@@ -667,12 +679,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -738,256 +750,253 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
+        <f>"15.02.2024"</f>
+        <v>15.02.2024</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="str">
+    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="str">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -995,17 +1004,23 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1013,16 +1028,34 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1033,7 +1066,7 @@
     <sortCondition descending="1" ref="B2:B16"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="E8" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Title</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Evaluation of possible designs for a three-arm clinical trial: Comparing a closed-testing design to potential alternatives.</t>
   </si>
   <si>
-    <t>files/talks/20240215_Rufibach_Futility_handout.pdf</t>
-  </si>
-  <si>
     <t>Futility analyses - a strategic tool in drug development and not futile fat all!</t>
   </si>
   <si>
@@ -229,6 +226,18 @@
   </si>
   <si>
     <t>Effective Statistician Conference 2024</t>
+  </si>
+  <si>
+    <t>files/talks/20201220_Vienna_Rufibach_multistate.pdf</t>
+  </si>
+  <si>
+    <t>Vienna Biometric Section</t>
+  </si>
+  <si>
+    <t>Use of multistate models to improve decision-making in clinical trials</t>
+  </si>
+  <si>
+    <t>files/talks/20240215_Rufibach_Futility.pdf</t>
   </si>
 </sst>
 </file>
@@ -679,12 +688,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -759,16 +768,16 @@
         <v>15.02.2024</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -967,60 +976,54 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
+        <f>"20.12.2020"</f>
+        <v>20.12.2020</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1028,17 +1031,23 @@
         <v>18</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
@@ -1046,24 +1055,42 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:N16">
-    <sortCondition descending="1" ref="A2:A16"/>
-    <sortCondition descending="1" ref="B2:B16"/>
+  <sortState ref="A2:N19">
+    <sortCondition descending="1" ref="A2:A19"/>
+    <sortCondition descending="1" ref="B2:B19"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -691,9 +691,9 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -219,9 +219,6 @@
     <t>Evaluation of possible designs for a three-arm clinical trial: Comparing a closed-testing design to potential alternatives.</t>
   </si>
   <si>
-    <t>Futility analyses - a strategic tool in drug development and not futile fat all!</t>
-  </si>
-  <si>
     <t>https://theeffectivestatistician.com/welcome-to-the-effective-statistician-conference-2024/</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>files/talks/20240215_Rufibach_Futility.pdf</t>
+  </si>
+  <si>
+    <t>Futility analyses - a strategic tool in drug development and not futile at all!</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,16 +768,16 @@
         <v>15.02.2024</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -981,13 +981,13 @@
         <v>20.12.2020</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$126</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Title</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Futility analyses - a strategic tool in drug development and not futile at all!</t>
+  </si>
+  <si>
+    <t>Annual meeting of the Danish Society for Biopharmaceutical Statistics</t>
+  </si>
+  <si>
+    <t>Estimands, target trial emulation, and use of external control data</t>
+  </si>
+  <si>
+    <t>files/talks/20240523_Rufibach_trial_emulation_handout.pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.06707</t>
   </si>
 </sst>
 </file>
@@ -688,12 +700,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +715,7 @@
     <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
@@ -759,330 +771,351 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"23.05.2024"</f>
+        <v>23.05.2024</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="str">
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="str">
+    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="str">
+    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B17" s="3" t="str">
         <f>"28.08.2023"</f>
         <v>28.08.2023</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B18" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B19" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1093,10 +1126,11 @@
     <sortCondition descending="1" ref="B2:B19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="E9" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$128</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2208.06707</t>
+  </si>
+  <si>
+    <t>2-hour training for clinical reviewers: Implications of the ICH E9 estimand addendum on how we develop, run, and analyse clinical trials</t>
+  </si>
+  <si>
+    <t>files/talks/20210519_ANVISA_estimands.pdf</t>
+  </si>
+  <si>
+    <t>Seminar of Brazilian Health Regulatory Agency (Anvisa)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=chUufn9OqOw</t>
+  </si>
+  <si>
+    <t>PSI conference 2024, Amsterdam</t>
+  </si>
+  <si>
+    <t>Implementation of statistical innovation in a pharmaceutical company</t>
+  </si>
+  <si>
+    <t>files/talks/20240619_PSI_Rufibach_innovation.pdf</t>
   </si>
 </sst>
 </file>
@@ -700,12 +721,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -771,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -987,100 +1008,97 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
+        <f>"19.05.2021"</f>
+        <v>19.05.2021</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1088,17 +1106,17 @@
         <v>18</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1106,16 +1124,58 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
     </row>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\20_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F19457D-7F49-46A3-B893-CE30B1C4C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="61"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$129</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
   <si>
     <t>Title</t>
   </si>
@@ -271,12 +285,21 @@
   </si>
   <si>
     <t>files/talks/20240619_PSI_Rufibach_innovation.pdf</t>
+  </si>
+  <si>
+    <t>BayesPharma 2019, Lyon</t>
+  </si>
+  <si>
+    <t>Bayesian Predictive Power: Theory, challenges in implementations and perspectives</t>
+  </si>
+  <si>
+    <t>http://www.bayes-pharma.org/wp-content/uploads/2019/06/Session-4.1-Kaspar-Rufibach.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -333,8 +356,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,16 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1161,33 +1184,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>"23.05.2019"</f>
+        <v>23.05.2019</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B22" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:N19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
     <sortCondition descending="1" ref="A2:A19"/>
     <sortCondition descending="1" ref="B2:B19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F19457D-7F49-46A3-B893-CE30B1C4C5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F5F3E-664E-4E02-AE1C-67A8521D5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,9 +747,9 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1088,58 +1088,58 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="str">
+        <f>"23.05.2019"</f>
+        <v>23.05.2019</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f>"19.06.2024"</f>
-        <v>19.06.2024</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1147,23 +1147,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1171,35 +1165,41 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f>"23.05.2019"</f>
-        <v>23.05.2019</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1222,9 +1222,9 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
-    <sortCondition descending="1" ref="A2:A19"/>
-    <sortCondition descending="1" ref="B2:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition descending="1" ref="A2:A20"/>
+    <sortCondition descending="1" ref="B2:B20"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F5F3E-664E-4E02-AE1C-67A8521D5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210CA0E-EADE-4A37-A179-7FE259B03531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>Title</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>http://www.bayes-pharma.org/wp-content/uploads/2019/06/Session-4.1-Kaspar-Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>9th EFSPI regulatory statistics workshop</t>
+  </si>
+  <si>
+    <t>CLL11 -- a trial tailored to answer questions from many stakeholders efficiently</t>
+  </si>
+  <si>
+    <t>files/talks/20240911_Rufibach_EFSPI_CLL11.pdf</t>
   </si>
 </sst>
 </file>
@@ -744,12 +753,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -815,349 +824,349 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"11.09.2024"</f>
+        <v>11.09.2024</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="4" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="str">
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="str">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="str">
+    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="str">
+    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="str">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f>"19.06.2024"</f>
-        <v>19.06.2024</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1165,23 +1174,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1189,17 +1192,23 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1207,28 +1216,46 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
-    <sortCondition descending="1" ref="A2:A20"/>
-    <sortCondition descending="1" ref="B2:B20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N21">
+    <sortCondition descending="1" ref="A3:A21"/>
+    <sortCondition descending="1" ref="B3:B21"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E10" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\02_Job\02_Webpage\60_quarto\kasparrufibach\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C210CA0E-EADE-4A37-A179-7FE259B03531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FE42A-69BB-4D0E-9ABF-8CCF04123958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="990" windowWidth="21600" windowHeight="18480" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>Title</t>
   </si>
@@ -236,9 +236,6 @@
     <t>https://theeffectivestatistician.com/welcome-to-the-effective-statistician-conference-2024/</t>
   </si>
   <si>
-    <t>Effective Statistician Conference 2024</t>
-  </si>
-  <si>
     <t>files/talks/20201220_Vienna_Rufibach_multistate.pdf</t>
   </si>
   <si>
@@ -303,6 +300,18 @@
   </si>
   <si>
     <t>files/talks/20240911_Rufibach_EFSPI_CLL11.pdf</t>
+  </si>
+  <si>
+    <t>Effective Statistician Conference 2024 (2)</t>
+  </si>
+  <si>
+    <t>Effective Statistician Conference 2024 (1)</t>
+  </si>
+  <si>
+    <t>What is the biggest contribution of statisticians to drug development?</t>
+  </si>
+  <si>
+    <t>files/talks/20241107_EffStat_value.pdf</t>
   </si>
 </sst>
 </file>
@@ -349,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -363,10 +372,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,15 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -824,367 +834,367 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="3">
+        <v>45603</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"11.09.2024"</f>
         <v>11.09.2024</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    </row>
+    <row r="5" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="str">
+    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="str">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="str">
+    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="str">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="str">
+    <row r="11" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
+    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="str">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="str">
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="str">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="str">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f>"19.06.2024"</f>
-        <v>19.06.2024</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1192,23 +1202,17 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1216,17 +1220,23 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1234,28 +1244,46 @@
         <v>18</v>
       </c>
       <c r="B23" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N21">
-    <sortCondition descending="1" ref="A3:A21"/>
-    <sortCondition descending="1" ref="B3:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N22">
+    <sortCondition descending="1" ref="A4:A22"/>
+    <sortCondition descending="1" ref="B4:B22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FE42A-69BB-4D0E-9ABF-8CCF04123958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BF045-235B-46EE-98CF-93CE7FCED272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="990" windowWidth="21600" windowHeight="18480" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -765,32 +765,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="1"/>
+    <col min="14" max="14" width="36.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,12 +834,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
-        <v>45603</v>
+      <c r="B2" s="3" t="str">
+        <f>"07.11.2024"</f>
+        <v>07.11.2024</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>88</v>
@@ -852,7 +853,7 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -870,7 +871,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -891,7 +892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="140" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -912,7 +913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -930,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -966,7 +967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -990,7 +991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BF045-235B-46EE-98CF-93CE7FCED272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7561DF4-62A9-4345-A3F5-1576A9530405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>Title</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>files/talks/20241107_EffStat_value.pdf</t>
+  </si>
+  <si>
+    <t>files/talks/20241119_Rufibach_PSI_causal.pdf</t>
+  </si>
+  <si>
+    <t>Joint PSI/EFSPI Causal Inference SIG Webinar</t>
+  </si>
+  <si>
+    <t>Opportunities in applying a causal inference framework during the analysis of an RCT</t>
   </si>
 </sst>
 </file>
@@ -763,34 +772,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7265625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.54296875" style="1"/>
+    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,457 +843,475 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
+        <f>"19.11.2024"</f>
+        <v>19.11.2024</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="str">
         <f>"07.11.2024"</f>
         <v>07.11.2024</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"11.09.2024"</f>
         <v>11.09.2024</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="140" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="6" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="str">
+    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="str">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="str">
+    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="str">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="12" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="str">
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="str">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="str">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B22" s="3" t="str">
         <f>"19.06.2024"</f>
         <v>19.06.2024</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B23" s="3" t="str">
         <f>"28.08.2023"</f>
         <v>28.08.2023</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B24" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B25" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N22">
-    <sortCondition descending="1" ref="A4:A22"/>
-    <sortCondition descending="1" ref="B4:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N23">
+    <sortCondition descending="1" ref="A5:A23"/>
+    <sortCondition descending="1" ref="B5:B23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E12" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7561DF4-62A9-4345-A3F5-1576A9530405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A414C-AACB-479F-A7D8-F33CB4D18653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Title</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Opportunities in applying a causal inference framework during the analysis of an RCT</t>
+  </si>
+  <si>
+    <t>Statistical Methods Forum of the Mayo Clinic</t>
+  </si>
+  <si>
+    <t>Estimands: a genuine step forward in designing, running, analyzing, and communicating clinical trials</t>
   </si>
 </sst>
 </file>
@@ -772,34 +778,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="1"/>
+    <col min="14" max="14" width="36.7265625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,475 +849,490 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"23.01.2025"</f>
+        <v>23.01.2025</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"19.11.2024"</f>
         <v>19.11.2024</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="str">
+    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="str">
         <f>"07.11.2024"</f>
         <v>07.11.2024</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"11.09.2024"</f>
         <v>11.09.2024</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="7" spans="1:14" ht="140" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="str">
+    <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="str">
+    <row r="11" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="str">
+    <row r="13" spans="1:14" ht="40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="str">
+    <row r="14" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row r="17" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="str">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="str">
+    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="str">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="str">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B23" s="3" t="str">
         <f>"19.06.2024"</f>
         <v>19.06.2024</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B24" s="3" t="str">
         <f>"28.08.2023"</f>
         <v>28.08.2023</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B25" s="3" t="str">
         <f>"22.08.2022                         "</f>
         <v xml:space="preserve">22.08.2022                         </v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B26" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N23">
-    <sortCondition descending="1" ref="A5:A23"/>
-    <sortCondition descending="1" ref="B5:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N24">
+    <sortCondition descending="1" ref="A6:A24"/>
+    <sortCondition descending="1" ref="B6:B24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A414C-AACB-479F-A7D8-F33CB4D18653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5512FF29-0B2E-403C-80D6-5C4492F2B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>Title</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Estimands: a genuine step forward in designing, running, analyzing, and communicating clinical trials</t>
+  </si>
+  <si>
+    <t>files/talks/20250123_Rufibach_Mayo_estimands.pdf</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -863,6 +866,9 @@
       <c r="D2" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5512FF29-0B2E-403C-80D6-5C4492F2B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D08D6-001F-4C72-8983-7A7218771C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Title</t>
   </si>
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>files/talks/20250123_Rufibach_Mayo_estimands.pdf</t>
+  </si>
+  <si>
+    <t>BBS webinar "From Statistical Innovations to Common Practice, How to innovate with impact?"</t>
+  </si>
+  <si>
+    <t>files/talks/20250319_Rufibach_innovation_handout.pdf</t>
+  </si>
+  <si>
+    <t>https://osf.io/huq26/</t>
+  </si>
+  <si>
+    <t>Implementation of statistical innovation in a pharmaceutical company - it can be done!</t>
+  </si>
+  <si>
+    <t>files/talks/20250320_Rufibach_trial_emulation_handout.pdf</t>
   </si>
 </sst>
 </file>
@@ -781,12 +796,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
@@ -852,446 +867,443 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"20.03.2025"</f>
+        <v>20.03.2025</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"19.03.2025"</f>
+        <v>19.03.2025</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"23.01.2025"</f>
         <v>23.01.2025</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"19.11.2024"</f>
         <v>19.11.2024</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="str">
+    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="str">
         <f>"07.11.2024"</f>
         <v>07.11.2024</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>"11.09.2024"</f>
         <v>11.09.2024</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="8" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="140" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="str">
+    <row r="9" spans="1:14" ht="140" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="str">
+    <row r="10" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="str">
+    <row r="13" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="str">
+    <row r="15" spans="1:14" ht="40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="16" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="str">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="str">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="str">
+    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="str">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="str">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f>"19.06.2024"</f>
-        <v>19.06.2024</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -1299,17 +1311,17 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -1317,31 +1329,74 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="str">
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N24">
-    <sortCondition descending="1" ref="A6:A24"/>
-    <sortCondition descending="1" ref="B6:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N26">
+    <sortCondition descending="1" ref="A8:A26"/>
+    <sortCondition descending="1" ref="B8:B26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E15" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{A9F0675B-0F44-448E-A757-25BD626F7097}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D08D6-001F-4C72-8983-7A7218771C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F531342-1E79-4075-8936-1C7CD555F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Title</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>files/talks/20250320_Rufibach_trial_emulation_handout.pdf</t>
+  </si>
+  <si>
+    <t>University of Zurich "Symposium of Causal Inference in the Health Sciences"</t>
   </si>
 </sst>
 </file>
@@ -801,29 +804,29 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7265625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.54296875" style="1"/>
+    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -867,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -875,6 +878,9 @@
         <f>"20.03.2025"</f>
         <v>20.03.2025</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
@@ -885,7 +891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -906,7 +912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,7 +930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -942,7 +948,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -961,7 +967,7 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -979,7 +985,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="140" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F531342-1E79-4075-8936-1C7CD555F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7DBD63-682D-47EB-BBDB-A94B94536225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$136</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>University of Zurich "Symposium of Causal Inference in the Health Sciences"</t>
+  </si>
+  <si>
+    <t>Aligning the target product profile with your trial design – or avoiding statistically significant but clinically irrelevant effects</t>
+  </si>
+  <si>
+    <t>Statisticians in Finnish Pharmaceutical Industry webinar: "Probability of success"</t>
   </si>
 </sst>
 </file>
@@ -799,12 +805,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -812,9 +818,9 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
@@ -822,7 +828,7 @@
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -870,464 +876,461 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2" t="str">
+        <f>"06.05.2025"</f>
+        <v>06.05.2025</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>"20.03.2025"</f>
         <v>20.03.2025</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>"19.03.2025"</f>
         <v>19.03.2025</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>"23.01.2025"</f>
         <v>23.01.2025</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>"19.11.2024"</f>
         <v>19.11.2024</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="str">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="str">
         <f>"07.11.2024"</f>
         <v>07.11.2024</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="str">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="str">
         <f>"11.09.2024"</f>
         <v>11.09.2024</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>"23.05.2024"</f>
         <v>23.05.2024</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="10" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>"15.02.2024"</f>
         <v>15.02.2024</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="str">
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
         <f>"23.10.2023"</f>
         <v>23.10.2023</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="str">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="str">
         <f>"18.09.2023"</f>
         <v>18.09.2023</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="str">
+    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="str">
         <f>"30.08.2023"</f>
         <v>30.08.2023</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="str">
         <f>"09.08.2023"</f>
         <v>09.08.2023</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="str">
+    <row r="16" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
         <f>"08.08.2022"</f>
         <v>08.08.2022</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="str">
         <f>"22.02.2022"</f>
         <v>22.02.2022</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="str">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="str">
+    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="str">
         <f>"19.05.2021"</f>
         <v>19.05.2021</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="str">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>"11.02.2021"</f>
         <v>11.02.2021</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="str">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="str">
         <f>"20.12.2020"</f>
         <v>20.12.2020</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3" t="str">
+    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="str">
         <f>"23.05.2019"</f>
         <v>23.05.2019</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="3" t="str">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="str">
         <f>"10.09.2018"</f>
         <v>10.09.2018</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="str">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="str">
         <f>"28.04.2016"</f>
         <v>28.04.2016</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f>"19.06.2024"</f>
-        <v>19.06.2024</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1335,23 +1338,17 @@
         <v>18</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f>"28.08.2023"</f>
-        <v>28.08.2023</v>
+        <f>"19.06.2024"</f>
+        <v>19.06.2024</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1359,17 +1356,23 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f>"22.08.2022                         "</f>
-        <v xml:space="preserve">22.08.2022                         </v>
+        <f>"28.08.2023"</f>
+        <v>28.08.2023</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
@@ -1377,29 +1380,47 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="str">
+        <f>"22.08.2022                         "</f>
+        <v xml:space="preserve">22.08.2022                         </v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="str">
         <f>"16.06.2015"</f>
         <v>16.06.2015</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N26">
-    <sortCondition descending="1" ref="A8:A26"/>
-    <sortCondition descending="1" ref="B8:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:N27">
+    <sortCondition descending="1" ref="A9:A27"/>
+    <sortCondition descending="1" ref="B9:B27"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{A9F0675B-0F44-448E-A757-25BD626F7097}"/>
+    <hyperlink ref="E16" r:id="rId1" location="quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{A9F0675B-0F44-448E-A757-25BD626F7097}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7DBD63-682D-47EB-BBDB-A94B94536225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F444FBF-2BEE-4C8B-AFB2-52CF538AEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15450" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>Title</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Statisticians in Finnish Pharmaceutical Industry webinar: "Probability of success"</t>
+  </si>
+  <si>
+    <t>files/talks/20250506_Rufibach_MDD_handout.pdf</t>
   </si>
 </sst>
 </file>
@@ -807,32 +810,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
     <col min="14" max="14" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="1"/>
+    <col min="15" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -876,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -890,8 +893,11 @@
       <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -912,7 +918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -933,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -951,7 +957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -969,7 +975,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -988,7 +994,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>

--- a/data/talks.xlsx
+++ b/data/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\kasparrufibach\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F444FBF-2BEE-4C8B-AFB2-52CF538AEC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206BA334-C831-4E33-9EEC-AFAAFDD928DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15450" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="61" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>Title</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>files/talks/20250506_Rufibach_MDD_handout.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6Rmd1nQnLb4</t>
   </si>
 </sst>
 </file>
@@ -813,29 +816,29 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="10" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29" style="1" customWidth="1"/>
     <col min="14" max="14" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.54296875" style="1"/>
+    <col min="15" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -879,7 +882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -896,8 +899,11 @@
       <c r="E2" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -918,7 +924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,7 +945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -957,7 +963,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -975,7 +981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -994,7 +1000,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="140" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="168.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
